--- a/Pseudo-Code/rotateObjects.xlsx
+++ b/Pseudo-Code/rotateObjects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="21570" windowHeight="9405" tabRatio="546"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="21570" windowHeight="9405" tabRatio="546"/>
   </bookViews>
   <sheets>
     <sheet name="Rotate Objects" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Degrees</t>
   </si>
@@ -61,11 +61,23 @@
     <t>Previous
 Degree</t>
   </si>
+  <si>
+    <t>Round divided number</t>
+  </si>
+  <si>
+    <t>Un-divide rounded number</t>
+  </si>
+  <si>
+    <t>Calculate adjacent degrees</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +200,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -196,9 +208,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -225,14 +234,24 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
@@ -517,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,75 +548,75 @@
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="7" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F1" s="7">
+    <row r="1" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7">
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="15">
-        <v>3</v>
-      </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-    </row>
-    <row r="2" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="5">
         <v>30</v>
       </c>
       <c r="B3" s="2">
@@ -611,43 +630,43 @@
         <f>IF(C3&lt;0,C3+360,C3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="17">
         <f>D3/$A$3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <f>ROUNDDOWN(E3,0)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <f>ROUND(E3,0)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <f>ROUNDUP(E3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="16">
         <f>$A$3*F3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <f t="shared" ref="J3:K18" si="0">$A$3*G3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
-        <f>I3+$A$3</f>
+      <c r="K3" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:L39" si="1">I3+$A$3</f>
         <v>30</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <f>D3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <f>I3-$A$3</f>
         <v>-30</v>
       </c>
@@ -658,51 +677,51 @@
         <v>10</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C39" si="1">IF(B4&lt;=180,B4,B4-360)</f>
+        <f t="shared" ref="C4:C39" si="2">IF(B4&lt;=180,B4,B4-360)</f>
         <v>10</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D39" si="2">IF(C4&lt;0,C4+360,C4)</f>
+        <f t="shared" ref="D4:D39" si="3">IF(C4&lt;0,C4+360,C4)</f>
         <v>10</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E39" si="3">D4/$A$3</f>
+      <c r="E4" s="17">
+        <f t="shared" ref="E4:E39" si="4">D4/$A$3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F39" si="4">ROUNDDOWN(E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G39" si="5">ROUND(E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H39" si="6">ROUNDUP(E4,0)</f>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F39" si="5">ROUNDDOWN(E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G39" si="6">ROUND(E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H39" si="7">ROUNDUP(E4,0)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="14">
-        <f t="shared" ref="I4:K39" si="7">$A$3*F4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="I4" s="16">
+        <f t="shared" ref="I4:K39" si="8">$A$3*F4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L4" s="10">
-        <f>I4+$A$3</f>
+      <c r="L4" s="9">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="M4" s="10">
-        <f t="shared" ref="M4:M39" si="8">D4</f>
+      <c r="M4" s="9">
+        <f t="shared" ref="M4:M39" si="9">D4</f>
         <v>10</v>
       </c>
-      <c r="N4" s="2">
-        <f t="shared" ref="N4:N39" si="9">I4-$A$3</f>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:N39" si="10">I4-$A$3</f>
         <v>-30</v>
       </c>
     </row>
@@ -712,51 +731,51 @@
         <v>20</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="3"/>
+      <c r="E5" s="17">
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="5"/>
+      <c r="F5" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" si="6"/>
+      <c r="H5" s="4">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I5" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I5" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L5" s="10">
-        <f>I5+$A$3</f>
+      <c r="L5" s="9">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="M5" s="10">
-        <f t="shared" si="8"/>
+      <c r="M5" s="9">
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="N5" s="2">
-        <f t="shared" si="9"/>
+      <c r="N5" s="4">
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
     </row>
@@ -765,52 +784,52 @@
       <c r="B6" s="2">
         <v>30</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" si="1"/>
+      <c r="C6" s="5">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" si="3"/>
+      <c r="E6" s="18">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="4"/>
+      <c r="F6" s="4">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="5"/>
+      <c r="G6" s="4">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="6"/>
+      <c r="H6" s="4">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I6" s="14">
-        <f t="shared" si="7"/>
+      <c r="I6" s="16">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L6" s="10">
-        <f>I6+$A$3</f>
+      <c r="L6" s="9">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="M6" s="10">
-        <f t="shared" si="8"/>
+      <c r="M6" s="9">
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="N6" s="2">
-        <f t="shared" si="9"/>
+      <c r="N6" s="4">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -820,51 +839,51 @@
         <v>40</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="3"/>
+      <c r="E7" s="17">
+        <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="4"/>
+      <c r="F7" s="4">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="5"/>
+      <c r="G7" s="4">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="6"/>
+      <c r="H7" s="4">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I7" s="14">
-        <f t="shared" si="7"/>
+      <c r="I7" s="16">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="L7" s="10">
-        <f>I7+$A$3</f>
+      <c r="L7" s="9">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="M7" s="10">
-        <f t="shared" si="8"/>
+      <c r="M7" s="9">
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="N7" s="2">
-        <f t="shared" si="9"/>
+      <c r="N7" s="4">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -874,51 +893,51 @@
         <v>50</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="3"/>
+      <c r="E8" s="17">
+        <f t="shared" si="4"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="4"/>
+      <c r="F8" s="4">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="5"/>
+      <c r="G8" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="6"/>
+      <c r="H8" s="4">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I8" s="14">
-        <f t="shared" si="7"/>
+      <c r="I8" s="16">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="L8" s="10">
-        <f>I8+$A$3</f>
+      <c r="L8" s="9">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="M8" s="10">
-        <f t="shared" si="8"/>
+      <c r="M8" s="9">
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="N8" s="2">
-        <f t="shared" si="9"/>
+      <c r="N8" s="4">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -927,52 +946,52 @@
       <c r="B9" s="2">
         <v>60</v>
       </c>
-      <c r="C9" s="6">
-        <f t="shared" si="1"/>
+      <c r="C9" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="3"/>
+      <c r="E9" s="18">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="4"/>
+      <c r="F9" s="4">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="5"/>
+      <c r="G9" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="6"/>
+      <c r="H9" s="4">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="I9" s="14">
-        <f t="shared" si="7"/>
+      <c r="I9" s="16">
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="L9" s="10">
-        <f>I9+$A$3</f>
+      <c r="L9" s="9">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="M9" s="10">
-        <f t="shared" si="8"/>
+      <c r="M9" s="9">
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="N9" s="2">
-        <f t="shared" si="9"/>
+      <c r="N9" s="4">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
     </row>
@@ -982,51 +1001,51 @@
         <v>70</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" si="3"/>
+      <c r="E10" s="17">
+        <f t="shared" si="4"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="4"/>
+      <c r="F10" s="4">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="5"/>
+      <c r="G10" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="6"/>
+      <c r="H10" s="4">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="I10" s="14">
-        <f t="shared" si="7"/>
+      <c r="I10" s="16">
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L10" s="10">
-        <f>I10+$A$3</f>
+      <c r="L10" s="9">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="M10" s="10">
-        <f t="shared" si="8"/>
+      <c r="M10" s="9">
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="N10" s="2">
-        <f t="shared" si="9"/>
+      <c r="N10" s="4">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
     </row>
@@ -1036,51 +1055,51 @@
         <v>80</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="3"/>
+      <c r="E11" s="17">
+        <f t="shared" si="4"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="4"/>
+      <c r="F11" s="4">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="5"/>
+      <c r="G11" s="4">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="6"/>
+      <c r="H11" s="4">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="I11" s="14">
-        <f t="shared" si="7"/>
+      <c r="I11" s="16">
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L11" s="10">
-        <f>I11+$A$3</f>
+      <c r="L11" s="9">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="M11" s="10">
-        <f t="shared" si="8"/>
+      <c r="M11" s="9">
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="N11" s="2">
-        <f t="shared" si="9"/>
+      <c r="N11" s="4">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
     </row>
@@ -1089,52 +1108,52 @@
       <c r="B12" s="2">
         <v>90</v>
       </c>
-      <c r="C12" s="6">
-        <f t="shared" si="1"/>
+      <c r="C12" s="5">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" si="3"/>
+      <c r="E12" s="18">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="4"/>
+      <c r="F12" s="4">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="5"/>
+      <c r="G12" s="4">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" si="6"/>
+      <c r="H12" s="4">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="I12" s="14">
-        <f t="shared" si="7"/>
+      <c r="I12" s="16">
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L12" s="10">
-        <f>I12+$A$3</f>
+      <c r="L12" s="9">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="M12" s="10">
-        <f t="shared" si="8"/>
+      <c r="M12" s="9">
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="N12" s="2">
-        <f t="shared" si="9"/>
+      <c r="N12" s="4">
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
     </row>
@@ -1144,51 +1163,51 @@
         <v>100</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="3"/>
+      <c r="E13" s="17">
+        <f t="shared" si="4"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="4"/>
+      <c r="F13" s="4">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" si="5"/>
+      <c r="G13" s="4">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" si="6"/>
+      <c r="H13" s="4">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="I13" s="14">
-        <f t="shared" si="7"/>
+      <c r="I13" s="16">
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L13" s="10">
-        <f>I13+$A$3</f>
+      <c r="L13" s="9">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="M13" s="10">
-        <f t="shared" si="8"/>
+      <c r="M13" s="9">
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="N13" s="2">
-        <f t="shared" si="9"/>
+      <c r="N13" s="4">
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
     </row>
@@ -1198,51 +1217,51 @@
         <v>110</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="3"/>
+      <c r="E14" s="17">
+        <f t="shared" si="4"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="4"/>
+      <c r="F14" s="4">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="5"/>
+      <c r="G14" s="4">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="H14" s="2">
-        <f t="shared" si="6"/>
+      <c r="H14" s="4">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="I14" s="14">
-        <f t="shared" si="7"/>
+      <c r="I14" s="16">
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L14" s="10">
-        <f>I14+$A$3</f>
+      <c r="L14" s="9">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="M14" s="10">
-        <f t="shared" si="8"/>
+      <c r="M14" s="9">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="N14" s="2">
-        <f t="shared" si="9"/>
+      <c r="N14" s="4">
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
     </row>
@@ -1251,52 +1270,52 @@
       <c r="B15" s="2">
         <v>120</v>
       </c>
-      <c r="C15" s="6">
-        <f t="shared" si="1"/>
+      <c r="C15" s="5">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="3"/>
+      <c r="E15" s="18">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="4"/>
+      <c r="F15" s="4">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="5"/>
+      <c r="G15" s="4">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="6"/>
+      <c r="H15" s="4">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="I15" s="14">
-        <f t="shared" si="7"/>
+      <c r="I15" s="16">
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L15" s="10">
-        <f>I15+$A$3</f>
+      <c r="L15" s="9">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="M15" s="10">
-        <f t="shared" si="8"/>
+      <c r="M15" s="9">
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
-      <c r="N15" s="2">
-        <f t="shared" si="9"/>
+      <c r="N15" s="4">
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
     </row>
@@ -1306,51 +1325,51 @@
         <v>130</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" si="3"/>
+      <c r="E16" s="17">
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="4"/>
+      <c r="F16" s="4">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G16" s="2">
-        <f t="shared" si="5"/>
+      <c r="G16" s="4">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="H16" s="2">
-        <f t="shared" si="6"/>
+      <c r="H16" s="4">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I16" s="14">
-        <f t="shared" si="7"/>
+      <c r="I16" s="16">
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L16" s="10">
-        <f>I16+$A$3</f>
+      <c r="L16" s="9">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="M16" s="10">
-        <f t="shared" si="8"/>
+      <c r="M16" s="9">
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
-      <c r="N16" s="2">
-        <f t="shared" si="9"/>
+      <c r="N16" s="4">
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
     </row>
@@ -1360,51 +1379,51 @@
         <v>140</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" si="3"/>
+      <c r="E17" s="17">
+        <f t="shared" si="4"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="4"/>
+      <c r="F17" s="4">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" si="5"/>
+      <c r="G17" s="4">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="H17" s="2">
-        <f t="shared" si="6"/>
+      <c r="H17" s="4">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I17" s="14">
-        <f t="shared" si="7"/>
+      <c r="I17" s="16">
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L17" s="10">
-        <f>I17+$A$3</f>
+      <c r="L17" s="9">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="M17" s="10">
-        <f t="shared" si="8"/>
+      <c r="M17" s="9">
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="N17" s="2">
-        <f t="shared" si="9"/>
+      <c r="N17" s="4">
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
     </row>
@@ -1413,52 +1432,52 @@
       <c r="B18" s="2">
         <v>150</v>
       </c>
-      <c r="C18" s="6">
-        <f t="shared" si="1"/>
+      <c r="C18" s="5">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="E18" s="2">
-        <f t="shared" si="3"/>
+      <c r="E18" s="18">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="4"/>
+      <c r="F18" s="4">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G18" s="2">
-        <f t="shared" si="5"/>
+      <c r="G18" s="4">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="H18" s="2">
-        <f t="shared" si="6"/>
+      <c r="H18" s="4">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I18" s="14">
-        <f t="shared" si="7"/>
+      <c r="I18" s="16">
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L18" s="10">
-        <f>I18+$A$3</f>
+      <c r="L18" s="9">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="M18" s="10">
-        <f t="shared" si="8"/>
+      <c r="M18" s="9">
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="N18" s="2">
-        <f t="shared" si="9"/>
+      <c r="N18" s="4">
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
     </row>
@@ -1468,51 +1487,51 @@
         <v>160</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" si="3"/>
+      <c r="E19" s="17">
+        <f t="shared" si="4"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="4"/>
+      <c r="F19" s="4">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" si="5"/>
+      <c r="G19" s="4">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" si="6"/>
+      <c r="H19" s="4">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="I19" s="14">
-        <f t="shared" si="7"/>
+      <c r="I19" s="16">
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="7"/>
+      <c r="J19" s="4">
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="K19" s="2">
-        <f t="shared" si="7"/>
+      <c r="K19" s="4">
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="L19" s="10">
-        <f>I19+$A$3</f>
+      <c r="L19" s="9">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="M19" s="10">
-        <f t="shared" si="8"/>
+      <c r="M19" s="9">
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
-      <c r="N19" s="2">
-        <f t="shared" si="9"/>
+      <c r="N19" s="4">
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
     </row>
@@ -1522,51 +1541,51 @@
         <v>170</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" si="3"/>
+      <c r="E20" s="17">
+        <f t="shared" si="4"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="4"/>
+      <c r="F20" s="4">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" si="5"/>
+      <c r="G20" s="4">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="6"/>
+      <c r="H20" s="4">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="I20" s="14">
-        <f t="shared" si="7"/>
+      <c r="I20" s="16">
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="7"/>
+      <c r="J20" s="4">
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="K20" s="2">
-        <f t="shared" si="7"/>
+      <c r="K20" s="4">
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="L20" s="10">
-        <f>I20+$A$3</f>
+      <c r="L20" s="9">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="M20" s="10">
-        <f t="shared" si="8"/>
+      <c r="M20" s="9">
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
-      <c r="N20" s="2">
-        <f t="shared" si="9"/>
+      <c r="N20" s="4">
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
     </row>
@@ -1575,52 +1594,52 @@
       <c r="B21" s="2">
         <v>180</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" si="1"/>
+      <c r="C21" s="5">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="3"/>
+      <c r="E21" s="18">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="4"/>
+      <c r="F21" s="4">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="5"/>
+      <c r="G21" s="4">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="6"/>
+      <c r="H21" s="4">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="I21" s="14">
-        <f t="shared" si="7"/>
+      <c r="I21" s="16">
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="7"/>
+      <c r="J21" s="4">
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="K21" s="2">
-        <f t="shared" si="7"/>
+      <c r="K21" s="4">
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="L21" s="10">
-        <f>I21+$A$3</f>
+      <c r="L21" s="9">
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="M21" s="10">
-        <f t="shared" si="8"/>
+      <c r="M21" s="9">
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" si="9"/>
+      <c r="N21" s="4">
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
     </row>
@@ -1629,52 +1648,52 @@
       <c r="B22" s="1">
         <v>190</v>
       </c>
-      <c r="C22" s="5">
-        <f t="shared" si="1"/>
+      <c r="C22" s="6">
+        <f t="shared" si="2"/>
         <v>-170</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="3"/>
+      <c r="E22" s="17">
+        <f t="shared" si="4"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="4"/>
+      <c r="F22" s="4">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="5"/>
+      <c r="G22" s="4">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="6"/>
+      <c r="H22" s="4">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="I22" s="14">
-        <f t="shared" si="7"/>
+      <c r="I22" s="16">
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="7"/>
+      <c r="J22" s="4">
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="K22" s="2">
-        <f t="shared" si="7"/>
+      <c r="K22" s="4">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="L22" s="10">
-        <f>I22+$A$3</f>
+      <c r="L22" s="9">
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="M22" s="10">
-        <f t="shared" si="8"/>
+      <c r="M22" s="9">
+        <f t="shared" si="9"/>
         <v>190</v>
       </c>
-      <c r="N22" s="2">
-        <f t="shared" si="9"/>
+      <c r="N22" s="4">
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
     </row>
@@ -1683,52 +1702,52 @@
       <c r="B23" s="1">
         <v>200</v>
       </c>
-      <c r="C23" s="5">
-        <f t="shared" si="1"/>
+      <c r="C23" s="6">
+        <f t="shared" si="2"/>
         <v>-160</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" si="3"/>
+      <c r="E23" s="17">
+        <f t="shared" si="4"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="4"/>
+      <c r="F23" s="4">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G23" s="2">
-        <f t="shared" si="5"/>
+      <c r="G23" s="4">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="H23" s="2">
-        <f t="shared" si="6"/>
+      <c r="H23" s="4">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="I23" s="14">
-        <f t="shared" si="7"/>
+      <c r="I23" s="16">
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" si="7"/>
+      <c r="J23" s="4">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="K23" s="2">
-        <f t="shared" si="7"/>
+      <c r="K23" s="4">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="L23" s="10">
-        <f>I23+$A$3</f>
+      <c r="L23" s="9">
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="M23" s="10">
-        <f t="shared" si="8"/>
+      <c r="M23" s="9">
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="N23" s="2">
-        <f t="shared" si="9"/>
+      <c r="N23" s="4">
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
     </row>
@@ -1737,52 +1756,52 @@
       <c r="B24" s="1">
         <v>210</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" si="1"/>
+      <c r="C24" s="5">
+        <f t="shared" si="2"/>
         <v>-150</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" si="3"/>
+      <c r="E24" s="18">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" si="4"/>
+      <c r="F24" s="4">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" si="5"/>
+      <c r="G24" s="4">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" si="6"/>
+      <c r="H24" s="4">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="I24" s="14">
-        <f t="shared" si="7"/>
+      <c r="I24" s="16">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="7"/>
+      <c r="J24" s="4">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="K24" s="2">
-        <f t="shared" si="7"/>
+      <c r="K24" s="4">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="L24" s="10">
-        <f>I24+$A$3</f>
+      <c r="L24" s="9">
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="M24" s="10">
-        <f t="shared" si="8"/>
+      <c r="M24" s="9">
+        <f t="shared" si="9"/>
         <v>210</v>
       </c>
-      <c r="N24" s="2">
-        <f t="shared" si="9"/>
+      <c r="N24" s="4">
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
     </row>
@@ -1791,52 +1810,52 @@
       <c r="B25" s="1">
         <v>220</v>
       </c>
-      <c r="C25" s="5">
-        <f t="shared" si="1"/>
+      <c r="C25" s="6">
+        <f t="shared" si="2"/>
         <v>-140</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" si="3"/>
+      <c r="E25" s="17">
+        <f t="shared" si="4"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="4"/>
+      <c r="F25" s="4">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" si="5"/>
+      <c r="G25" s="4">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="6"/>
+      <c r="H25" s="4">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I25" s="14">
-        <f t="shared" si="7"/>
+      <c r="I25" s="16">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="7"/>
+      <c r="J25" s="4">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="K25" s="2">
-        <f t="shared" si="7"/>
+      <c r="K25" s="4">
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="L25" s="10">
-        <f>I25+$A$3</f>
+      <c r="L25" s="9">
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="M25" s="10">
-        <f t="shared" si="8"/>
+      <c r="M25" s="9">
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
-      <c r="N25" s="2">
-        <f t="shared" si="9"/>
+      <c r="N25" s="4">
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
     </row>
@@ -1845,52 +1864,52 @@
       <c r="B26" s="1">
         <v>230</v>
       </c>
-      <c r="C26" s="5">
-        <f t="shared" si="1"/>
+      <c r="C26" s="6">
+        <f t="shared" si="2"/>
         <v>-130</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" si="3"/>
+      <c r="E26" s="17">
+        <f t="shared" si="4"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="4"/>
+      <c r="F26" s="4">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="G26" s="2">
-        <f t="shared" si="5"/>
+      <c r="G26" s="4">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="H26" s="2">
-        <f t="shared" si="6"/>
+      <c r="H26" s="4">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I26" s="14">
-        <f t="shared" si="7"/>
+      <c r="I26" s="16">
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="7"/>
+      <c r="J26" s="4">
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="K26" s="2">
-        <f t="shared" si="7"/>
+      <c r="K26" s="4">
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="L26" s="10">
-        <f>I26+$A$3</f>
+      <c r="L26" s="9">
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="M26" s="10">
-        <f t="shared" si="8"/>
+      <c r="M26" s="9">
+        <f t="shared" si="9"/>
         <v>230</v>
       </c>
-      <c r="N26" s="2">
-        <f t="shared" si="9"/>
+      <c r="N26" s="4">
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
     </row>
@@ -1899,52 +1918,52 @@
       <c r="B27" s="1">
         <v>240</v>
       </c>
-      <c r="C27" s="6">
-        <f t="shared" si="1"/>
+      <c r="C27" s="5">
+        <f t="shared" si="2"/>
         <v>-120</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="E27" s="2">
-        <f t="shared" si="3"/>
+      <c r="E27" s="18">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="F27" s="2">
-        <f t="shared" si="4"/>
+      <c r="F27" s="4">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="G27" s="2">
-        <f t="shared" si="5"/>
+      <c r="G27" s="4">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" si="6"/>
+      <c r="H27" s="4">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I27" s="14">
-        <f t="shared" si="7"/>
+      <c r="I27" s="16">
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="J27" s="2">
-        <f t="shared" si="7"/>
+      <c r="J27" s="4">
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="K27" s="2">
-        <f t="shared" si="7"/>
+      <c r="K27" s="4">
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="L27" s="10">
-        <f>I27+$A$3</f>
+      <c r="L27" s="9">
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="M27" s="10">
-        <f t="shared" si="8"/>
+      <c r="M27" s="9">
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
-      <c r="N27" s="2">
-        <f t="shared" si="9"/>
+      <c r="N27" s="4">
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
     </row>
@@ -1953,52 +1972,52 @@
       <c r="B28" s="1">
         <v>250</v>
       </c>
-      <c r="C28" s="5">
-        <f t="shared" si="1"/>
+      <c r="C28" s="6">
+        <f t="shared" si="2"/>
         <v>-110</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" si="3"/>
+      <c r="E28" s="17">
+        <f t="shared" si="4"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" si="4"/>
+      <c r="F28" s="4">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" si="5"/>
+      <c r="G28" s="4">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="6"/>
+      <c r="H28" s="4">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="I28" s="14">
-        <f t="shared" si="7"/>
+      <c r="I28" s="16">
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="J28" s="2">
-        <f t="shared" si="7"/>
+      <c r="J28" s="4">
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="K28" s="2">
-        <f t="shared" si="7"/>
+      <c r="K28" s="4">
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="L28" s="10">
-        <f>I28+$A$3</f>
+      <c r="L28" s="9">
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="M28" s="10">
-        <f t="shared" si="8"/>
+      <c r="M28" s="9">
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
-      <c r="N28" s="2">
-        <f t="shared" si="9"/>
+      <c r="N28" s="4">
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
     </row>
@@ -2007,52 +2026,52 @@
       <c r="B29" s="1">
         <v>260</v>
       </c>
-      <c r="C29" s="5">
-        <f t="shared" si="1"/>
+      <c r="C29" s="6">
+        <f t="shared" si="2"/>
         <v>-100</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" si="3"/>
+      <c r="E29" s="17">
+        <f t="shared" si="4"/>
         <v>8.6666666666666661</v>
       </c>
-      <c r="F29" s="2">
-        <f t="shared" si="4"/>
+      <c r="F29" s="4">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="G29" s="2">
-        <f t="shared" si="5"/>
+      <c r="G29" s="4">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" si="6"/>
+      <c r="H29" s="4">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="I29" s="14">
-        <f t="shared" si="7"/>
+      <c r="I29" s="16">
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="J29" s="2">
-        <f t="shared" si="7"/>
+      <c r="J29" s="4">
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="K29" s="2">
-        <f t="shared" si="7"/>
+      <c r="K29" s="4">
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="L29" s="10">
-        <f>I29+$A$3</f>
+      <c r="L29" s="9">
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="M29" s="10">
-        <f t="shared" si="8"/>
+      <c r="M29" s="9">
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
-      <c r="N29" s="2">
-        <f t="shared" si="9"/>
+      <c r="N29" s="4">
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
     </row>
@@ -2061,52 +2080,52 @@
       <c r="B30" s="1">
         <v>270</v>
       </c>
-      <c r="C30" s="6">
-        <f t="shared" si="1"/>
+      <c r="C30" s="5">
+        <f t="shared" si="2"/>
         <v>-90</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="E30" s="2">
-        <f t="shared" si="3"/>
+      <c r="E30" s="18">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="F30" s="2">
-        <f t="shared" si="4"/>
+      <c r="F30" s="4">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" si="5"/>
+      <c r="G30" s="4">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" si="6"/>
+      <c r="H30" s="4">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="I30" s="14">
-        <f t="shared" si="7"/>
+      <c r="I30" s="16">
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="J30" s="2">
-        <f t="shared" si="7"/>
+      <c r="J30" s="4">
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="K30" s="2">
-        <f t="shared" si="7"/>
+      <c r="K30" s="4">
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="L30" s="10">
-        <f>I30+$A$3</f>
+      <c r="L30" s="9">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="M30" s="10">
-        <f t="shared" si="8"/>
+      <c r="M30" s="9">
+        <f t="shared" si="9"/>
         <v>270</v>
       </c>
-      <c r="N30" s="2">
-        <f t="shared" si="9"/>
+      <c r="N30" s="4">
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
     </row>
@@ -2115,52 +2134,52 @@
       <c r="B31" s="1">
         <v>280</v>
       </c>
-      <c r="C31" s="5">
-        <f t="shared" si="1"/>
+      <c r="C31" s="6">
+        <f t="shared" si="2"/>
         <v>-80</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="E31" s="2">
-        <f t="shared" si="3"/>
+      <c r="E31" s="17">
+        <f t="shared" si="4"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" si="4"/>
+      <c r="F31" s="4">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G31" s="2">
-        <f t="shared" si="5"/>
+      <c r="G31" s="4">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="H31" s="2">
-        <f t="shared" si="6"/>
+      <c r="H31" s="4">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="I31" s="14">
-        <f t="shared" si="7"/>
+      <c r="I31" s="16">
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="J31" s="2">
-        <f t="shared" si="7"/>
+      <c r="J31" s="4">
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="K31" s="2">
-        <f t="shared" si="7"/>
+      <c r="K31" s="4">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="L31" s="10">
-        <f>I31+$A$3</f>
+      <c r="L31" s="9">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="M31" s="10">
-        <f t="shared" si="8"/>
+      <c r="M31" s="9">
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
-      <c r="N31" s="2">
-        <f t="shared" si="9"/>
+      <c r="N31" s="4">
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
     </row>
@@ -2169,52 +2188,52 @@
       <c r="B32" s="1">
         <v>290</v>
       </c>
-      <c r="C32" s="5">
-        <f t="shared" si="1"/>
+      <c r="C32" s="6">
+        <f t="shared" si="2"/>
         <v>-70</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
-      <c r="E32" s="2">
-        <f t="shared" si="3"/>
+      <c r="E32" s="17">
+        <f t="shared" si="4"/>
         <v>9.6666666666666661</v>
       </c>
-      <c r="F32" s="2">
-        <f t="shared" si="4"/>
+      <c r="F32" s="4">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G32" s="2">
-        <f t="shared" si="5"/>
+      <c r="G32" s="4">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="H32" s="2">
-        <f t="shared" si="6"/>
+      <c r="H32" s="4">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="I32" s="14">
-        <f t="shared" si="7"/>
+      <c r="I32" s="16">
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
-      <c r="J32" s="2">
-        <f t="shared" si="7"/>
+      <c r="J32" s="4">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="K32" s="2">
-        <f t="shared" si="7"/>
+      <c r="K32" s="4">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="L32" s="10">
-        <f>I32+$A$3</f>
+      <c r="L32" s="9">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="M32" s="10">
-        <f t="shared" si="8"/>
+      <c r="M32" s="9">
+        <f t="shared" si="9"/>
         <v>290</v>
       </c>
-      <c r="N32" s="2">
-        <f t="shared" si="9"/>
+      <c r="N32" s="4">
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
     </row>
@@ -2223,52 +2242,52 @@
       <c r="B33" s="1">
         <v>300</v>
       </c>
-      <c r="C33" s="6">
-        <f t="shared" si="1"/>
+      <c r="C33" s="5">
+        <f t="shared" si="2"/>
         <v>-60</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="E33" s="2">
-        <f t="shared" si="3"/>
+      <c r="E33" s="18">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="F33" s="2">
-        <f t="shared" si="4"/>
+      <c r="F33" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G33" s="2">
-        <f t="shared" si="5"/>
+      <c r="G33" s="4">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="H33" s="2">
-        <f t="shared" si="6"/>
+      <c r="H33" s="4">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="I33" s="14">
-        <f t="shared" si="7"/>
+      <c r="I33" s="16">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="J33" s="2">
-        <f t="shared" si="7"/>
+      <c r="J33" s="4">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="K33" s="2">
-        <f t="shared" si="7"/>
+      <c r="K33" s="4">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="L33" s="10">
-        <f>I33+$A$3</f>
+      <c r="L33" s="9">
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="M33" s="10">
-        <f t="shared" si="8"/>
+      <c r="M33" s="9">
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
-      <c r="N33" s="2">
-        <f t="shared" si="9"/>
+      <c r="N33" s="4">
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
     </row>
@@ -2277,52 +2296,52 @@
       <c r="B34" s="1">
         <v>310</v>
       </c>
-      <c r="C34" s="5">
-        <f t="shared" si="1"/>
+      <c r="C34" s="6">
+        <f t="shared" si="2"/>
         <v>-50</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" si="3"/>
+      <c r="E34" s="17">
+        <f t="shared" si="4"/>
         <v>10.333333333333334</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" si="4"/>
+      <c r="F34" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G34" s="2">
-        <f t="shared" si="5"/>
+      <c r="G34" s="4">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="H34" s="2">
-        <f t="shared" si="6"/>
+      <c r="H34" s="4">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="I34" s="14">
-        <f t="shared" si="7"/>
+      <c r="I34" s="16">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="J34" s="2">
-        <f t="shared" si="7"/>
+      <c r="J34" s="4">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="K34" s="2">
-        <f t="shared" si="7"/>
+      <c r="K34" s="4">
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
-      <c r="L34" s="10">
-        <f>I34+$A$3</f>
+      <c r="L34" s="9">
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="M34" s="10">
-        <f t="shared" si="8"/>
+      <c r="M34" s="9">
+        <f t="shared" si="9"/>
         <v>310</v>
       </c>
-      <c r="N34" s="2">
-        <f t="shared" si="9"/>
+      <c r="N34" s="4">
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
     </row>
@@ -2331,52 +2350,52 @@
       <c r="B35" s="1">
         <v>320</v>
       </c>
-      <c r="C35" s="5">
-        <f t="shared" si="1"/>
+      <c r="C35" s="6">
+        <f t="shared" si="2"/>
         <v>-40</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" si="3"/>
+      <c r="E35" s="17">
+        <f t="shared" si="4"/>
         <v>10.666666666666666</v>
       </c>
-      <c r="F35" s="2">
-        <f t="shared" si="4"/>
+      <c r="F35" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G35" s="2">
-        <f t="shared" si="5"/>
+      <c r="G35" s="4">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="H35" s="2">
-        <f t="shared" si="6"/>
+      <c r="H35" s="4">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="I35" s="14">
-        <f t="shared" si="7"/>
+      <c r="I35" s="16">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="J35" s="2">
-        <f t="shared" si="7"/>
+      <c r="J35" s="4">
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
-      <c r="K35" s="2">
-        <f t="shared" si="7"/>
+      <c r="K35" s="4">
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
-      <c r="L35" s="10">
-        <f>I35+$A$3</f>
+      <c r="L35" s="9">
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="M35" s="10">
-        <f t="shared" si="8"/>
+      <c r="M35" s="9">
+        <f t="shared" si="9"/>
         <v>320</v>
       </c>
-      <c r="N35" s="2">
-        <f t="shared" si="9"/>
+      <c r="N35" s="4">
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
     </row>
@@ -2385,52 +2404,52 @@
       <c r="B36" s="1">
         <v>330</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" si="1"/>
+      <c r="C36" s="5">
+        <f t="shared" si="2"/>
         <v>-30</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" si="3"/>
+      <c r="E36" s="18">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" si="4"/>
+      <c r="F36" s="4">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G36" s="2">
-        <f t="shared" si="5"/>
+      <c r="G36" s="4">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="H36" s="2">
-        <f t="shared" si="6"/>
+      <c r="H36" s="4">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="I36" s="14">
-        <f t="shared" si="7"/>
+      <c r="I36" s="16">
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
-      <c r="J36" s="2">
-        <f t="shared" si="7"/>
+      <c r="J36" s="4">
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
-      <c r="K36" s="2">
-        <f t="shared" si="7"/>
+      <c r="K36" s="4">
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
-      <c r="L36" s="10">
-        <f>I36+$A$3</f>
+      <c r="L36" s="9">
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="M36" s="10">
-        <f t="shared" si="8"/>
+      <c r="M36" s="9">
+        <f t="shared" si="9"/>
         <v>330</v>
       </c>
-      <c r="N36" s="2">
-        <f t="shared" si="9"/>
+      <c r="N36" s="4">
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
     </row>
@@ -2439,52 +2458,52 @@
       <c r="B37" s="1">
         <v>340</v>
       </c>
-      <c r="C37" s="5">
-        <f t="shared" si="1"/>
+      <c r="C37" s="6">
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" si="3"/>
+      <c r="E37" s="17">
+        <f t="shared" si="4"/>
         <v>11.333333333333334</v>
       </c>
-      <c r="F37" s="2">
-        <f t="shared" si="4"/>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G37" s="2">
-        <f t="shared" si="5"/>
+      <c r="G37" s="4">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="H37" s="2">
-        <f t="shared" si="6"/>
+      <c r="H37" s="4">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="I37" s="14">
-        <f t="shared" si="7"/>
+      <c r="I37" s="16">
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
-      <c r="J37" s="2">
-        <f t="shared" si="7"/>
+      <c r="J37" s="4">
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
-      <c r="K37" s="2">
-        <f t="shared" si="7"/>
+      <c r="K37" s="4">
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="L37" s="10">
-        <f>I37+$A$3</f>
+      <c r="L37" s="9">
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="M37" s="10">
-        <f t="shared" si="8"/>
+      <c r="M37" s="9">
+        <f t="shared" si="9"/>
         <v>340</v>
       </c>
-      <c r="N37" s="2">
-        <f t="shared" si="9"/>
+      <c r="N37" s="4">
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
     </row>
@@ -2493,51 +2512,51 @@
       <c r="B38" s="1">
         <v>350</v>
       </c>
-      <c r="C38" s="5">
-        <f t="shared" si="1"/>
+      <c r="C38" s="6">
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="D38" s="4">
         <v>355</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" si="3"/>
+      <c r="E38" s="17">
+        <f t="shared" si="4"/>
         <v>11.833333333333334</v>
       </c>
-      <c r="F38" s="2">
-        <f t="shared" si="4"/>
+      <c r="F38" s="4">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G38" s="2">
-        <f t="shared" si="5"/>
+      <c r="G38" s="4">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="H38" s="2">
-        <f t="shared" si="6"/>
+      <c r="H38" s="4">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="I38" s="14">
-        <f t="shared" si="7"/>
+      <c r="I38" s="16">
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
-      <c r="J38" s="2">
-        <f t="shared" si="7"/>
+      <c r="J38" s="4">
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="K38" s="2">
-        <f t="shared" si="7"/>
+      <c r="K38" s="4">
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="L38" s="10">
-        <f>I38+$A$3</f>
+      <c r="L38" s="9">
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="M38" s="10">
-        <f t="shared" si="8"/>
+      <c r="M38" s="9">
+        <f t="shared" si="9"/>
         <v>355</v>
       </c>
-      <c r="N38" s="2">
-        <f t="shared" si="9"/>
+      <c r="N38" s="4">
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
     </row>
@@ -2546,52 +2565,52 @@
       <c r="B39" s="1">
         <v>360</v>
       </c>
-      <c r="C39" s="6">
-        <f t="shared" si="1"/>
+      <c r="C39" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="10">
-        <f>I39+$A$3</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="M39" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="9"/>
+      <c r="M39" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
     </row>
